--- a/experiment/nonconvex/MitsosBarton2006Ex312/Experimentos_Generador/MitsosBarton2006Ex312__Strong_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex312/Experimentos_Generador/MitsosBarton2006Ex312__Strong_Stationarygenerator_alpha_non_zero.xlsx
@@ -60,22 +60,22 @@
     <t>-1 - x</t>
   </si>
   <si>
-    <t>-1.0464313623348753</t>
+    <t>-5.25</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.22062995858676704</t>
+    <t>0.9</t>
   </si>
   <si>
     <t>-1 + x</t>
   </si>
   <si>
-    <t>-0.9535686376651246</t>
-  </si>
-  <si>
-    <t>0.6460048307718608</t>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>0.68</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -87,40 +87,40 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-1 + 0.3163414892289187y</t>
-  </si>
-  <si>
-    <t>-0.8119444902373245</t>
+    <t>-1 + 22.397799008474497y</t>
+  </si>
+  <si>
+    <t>72.91273672796585</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.26285038252815807</t>
-  </si>
-  <si>
-    <t>0.5183891372677117</t>
-  </si>
-  <si>
-    <t>0.07113617007551719</t>
-  </si>
-  <si>
-    <t>-1 + 0.7751285477952595y</t>
-  </si>
-  <si>
-    <t>-0.5392093697777458</t>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>2.3000000000000003</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>-1 + 0.5535275588366352y</t>
+  </si>
+  <si>
+    <t>0.8266409441608962</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.7476228142365086</t>
-  </si>
-  <si>
-    <t>0.4568072316182542</t>
-  </si>
-  <si>
-    <t>0.24750132274144243</t>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>0.1</t>
   </si>
   <si>
     <t>x</t>
@@ -129,25 +129,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>0.04643136233487543</t>
-  </si>
-  <si>
-    <t>0.5944699515105025</t>
+    <t>4.25</t>
+  </si>
+  <si>
+    <t>3.3000000000000003</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-1.027615018519239</t>
+    <t>-49.29653975607441</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>0.24751381888090046</t>
-  </si>
-  <si>
-    <t>-12.909830572407833</t>
+    <t>0.8667181116782081</t>
+  </si>
+  <si>
+    <t>-148.47089741642495</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -752,7 +752,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.22487145220474047</v>
+        <v>0.4464724411633648</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/nonconvex/MitsosBarton2006Ex312/Experimentos_Generador/MitsosBarton2006Ex312__Strong_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex312/Experimentos_Generador/MitsosBarton2006Ex312__Strong_Stationarygenerator_alpha_non_zero.xlsx
@@ -87,10 +87,10 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-1 + 22.397799008474497y</t>
-  </si>
-  <si>
-    <t>72.91273672796585</t>
+    <t>-1 + 11.175706019321918y</t>
+  </si>
+  <si>
+    <t>35.87982986376233</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
@@ -99,16 +99,16 @@
     <t>0.23</t>
   </si>
   <si>
-    <t>2.3000000000000003</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>-1 + 0.5535275588366352y</t>
-  </si>
-  <si>
-    <t>0.8266409441608962</t>
+    <t>0.7000000000000001</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>-1 + 0.4631211675015009y</t>
+  </si>
+  <si>
+    <t>0.5282998527549532</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
@@ -117,10 +117,10 @@
     <t>0.58</t>
   </si>
   <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>0.1</t>
+    <t>1.4000000000000001</t>
+  </si>
+  <si>
+    <t>1.6</t>
   </si>
   <si>
     <t>x</t>
@@ -138,16 +138,16 @@
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-49.29653975607441</t>
+    <t>-46.66302266159494</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>0.8667181116782081</t>
-  </si>
-  <si>
-    <t>-148.47089741642495</t>
+    <t>1.4634002944900941</t>
+  </si>
+  <si>
+    <t>-109.23755668724215</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -752,7 +752,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.4464724411633648</v>
+        <v>0.5368788324984991</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/nonconvex/MitsosBarton2006Ex312/Experimentos_Generador/MitsosBarton2006Ex312__Strong_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex312/Experimentos_Generador/MitsosBarton2006Ex312__Strong_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -57,25 +57,25 @@
     <t>MIU_value</t>
   </si>
   <si>
-    <t>-1 - x</t>
-  </si>
-  <si>
-    <t>-5.25</t>
+    <t>0.8 - x</t>
+  </si>
+  <si>
+    <t>-1.8</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>-1 + x</t>
-  </si>
-  <si>
-    <t>3.25</t>
-  </si>
-  <si>
-    <t>0.68</t>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>-0.8 + x</t>
+  </si>
+  <si>
+    <t>-0.19999999999999996</t>
+  </si>
+  <si>
+    <t>0.96</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -87,40 +87,40 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-1 + 11.175706019321918y</t>
-  </si>
-  <si>
-    <t>35.87982986376233</t>
+    <t>-5.664728682170543 + 3.062015503875969y</t>
+  </si>
+  <si>
+    <t>4.664728682170543</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.23</t>
-  </si>
-  <si>
-    <t>0.7000000000000001</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>-1 + 0.4631211675015009y</t>
-  </si>
-  <si>
-    <t>0.5282998527549532</t>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>7.9</t>
+  </si>
+  <si>
+    <t>2.9230000000000005 - 1.58y</t>
+  </si>
+  <si>
+    <t>-3.9230000000000005</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.58</t>
-  </si>
-  <si>
-    <t>1.4000000000000001</t>
-  </si>
-  <si>
-    <t>1.6</t>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>8.0</t>
   </si>
   <si>
     <t>x</t>
@@ -129,25 +129,22 @@
     <t>y</t>
   </si>
   <si>
-    <t>4.25</t>
-  </si>
-  <si>
-    <t>3.3000000000000003</t>
+    <t>1.85</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-46.66302266159494</t>
+    <t>-11.714381782945736</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>1.4634002944900941</t>
-  </si>
-  <si>
-    <t>-109.23755668724215</t>
+    <t>8.476</t>
+  </si>
+  <si>
+    <t>-74.09191240310076</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -675,10 +672,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
         <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -696,12 +693,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -719,17 +716,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -747,12 +744,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.5368788324984991</v>
+        <v>2.58</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/nonconvex/MitsosBarton2006Ex312/Experimentos_Generador/MitsosBarton2006Ex312__Strong_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex312/Experimentos_Generador/MitsosBarton2006Ex312__Strong_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -57,25 +57,25 @@
     <t>MIU_value</t>
   </si>
   <si>
-    <t>0.8 - x</t>
-  </si>
-  <si>
-    <t>-1.8</t>
+    <t>1.9 - x</t>
+  </si>
+  <si>
+    <t>-2.9</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.74</t>
-  </si>
-  <si>
-    <t>-0.8 + x</t>
-  </si>
-  <si>
-    <t>-0.19999999999999996</t>
-  </si>
-  <si>
-    <t>0.96</t>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>-1.9 + x</t>
+  </si>
+  <si>
+    <t>0.8999999999999999</t>
+  </si>
+  <si>
+    <t>0.08</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -87,40 +87,40 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-5.664728682170543 + 3.062015503875969y</t>
-  </si>
-  <si>
-    <t>4.664728682170543</t>
+    <t>-0.30000000000000004 + 2.0y</t>
+  </si>
+  <si>
+    <t>-0.7</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.76</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>7.9</t>
-  </si>
-  <si>
-    <t>2.9230000000000005 - 1.58y</t>
-  </si>
-  <si>
-    <t>-3.9230000000000005</t>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>3.9000000000000004</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-1</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>9.5</t>
-  </si>
-  <si>
-    <t>8.0</t>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>3.2</t>
   </si>
   <si>
     <t>x</t>
@@ -129,22 +129,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>1.85</t>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>0.15</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-11.714381782945736</t>
+    <t>0.5432499999999999</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>8.476</t>
-  </si>
-  <si>
-    <t>-74.09191240310076</t>
+    <t>2.185</t>
+  </si>
+  <si>
+    <t>-0.3532499999999996</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -672,10 +675,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -693,12 +696,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -716,17 +719,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -744,12 +747,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>2.58</v>
+        <v>1.9500000000000002</v>
       </c>
     </row>
   </sheetData>
